--- a/pred_ohlcv/54_21/2020-01-25 MCO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 MCO ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-142.133</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-125.2249</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-125.2249</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-125.2249</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-125.2249</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-125.2249</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-140.481</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-110.0091</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-220.9442</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-220.9442</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-220.9442</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-220.9442</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-187.8216</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-183.9216</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-176.8216</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-174.4832</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>592.6591999999999</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -912,7 +912,7 @@
         <v>525.7186501399997</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>531.7186501399997</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>1126.93025014</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>1147.93025014</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>949.2818501399995</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>955.6580501399995</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>1411.10025014</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-637.8142498600002</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-637.8142498600002</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>861.9169501399998</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>598.3469501399998</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>721.7390501399998</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>721.7390501399998</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>721.7390501399998</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>936.8389501399997</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>927.6389501399997</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>792.7672501399996</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>1555.08345014</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>1555.08345014</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>1564.292750139999</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>1503.391750139999</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>314.1432501399995</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>330.4232501399995</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>325.5232501399995</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-1748.87873562</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-1740.77873562</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-1888.45643562</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-1896.65643562</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-1273.94273562</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-25 MCO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 MCO ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-142.133</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-125.2249</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-125.2249</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-125.2249</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-140.481</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-110.0091</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-220.9442</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-220.9442</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-220.9442</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-220.9442</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-187.8216</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-183.9216</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-176.8216</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-174.4832</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>592.6591999999999</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -912,7 +912,7 @@
         <v>525.7186501399997</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>949.2818501399995</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>955.6580501399995</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>1411.10025014</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>1411.10025014</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-637.8142498600002</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-637.8142498600002</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>598.3469501399998</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>721.7390501399998</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>927.6389501399997</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>792.7672501399996</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>1555.08345014</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>1503.391750139999</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>314.1432501399995</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-1748.87873562</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-1740.77873562</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
